--- a/大软件测试-题库(1).xlsx
+++ b/大软件测试-题库(1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leon\Desktop\软测\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leon\Desktop\软测\软测题库\TongjiSE_SoftwareTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5A78A7-0901-4FF9-9AA9-1691761CA20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C7E1F1-C505-45FC-9443-2C741E1C5D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="492">
   <si>
     <t>、</t>
   </si>
@@ -1065,9 +1065,6 @@
     <t>听不懂</t>
   </si>
   <si>
-    <t>软件测试的两个基本职责：确认与验证;中文教材第3页</t>
-  </si>
-  <si>
     <t>李嘉文</t>
   </si>
   <si>
@@ -1233,9 +1230,6 @@
   </si>
   <si>
     <t>..</t>
-  </si>
-  <si>
-    <t>PPT第三章28页 临时集成？</t>
   </si>
   <si>
     <t>举例测试的风险，据两个例子</t>
@@ -1658,10 +1652,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>结构</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>level和factor</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1671,6 +1661,75 @@
   </si>
   <si>
     <t>ppt验收测试部分提到，在一个general市场下需要找一群目标用户测试问问他们感受</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>强健壮等价类</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>疑似residuction，指测试挂起，就是前面测试卡死了没法接着测了</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件测试的两个基本职责：确认与验证;中文教材第3页：确认是确认符合需求，验证是验证是否和需求，和前面测试一致</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷开发每一轮都会加新东西，当然集成之后要测</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>这两个在任何时候都能用，取决于你能不能找到边界值和等价类</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>遇到极其严重的错误了，后面测试没法继续了/你前面测太多了先改了再说</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>看V模型，architecture和component design</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个变量有错，两个变量有错……全有错</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>walkthrough，静态测试里的</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于需求的输入输出，功能性测试</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPT第三章28页 临时集成？
+简单来说就是你测完component的功能就直接去集成，看看接口对不对</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>要的，特别要注意包括程序维护手册和程序员开发手册，描述代码内容</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>按需求来</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>似乎是……吧，不过这个部分是在静态测试里提到，deviation of standard</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>有个大骨架，一个一个模块拼上去</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>一方面考虑面对错误输入的识别，另一方面考虑crush了能不能快速恢复</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构性，单元测试要白盒的</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1690,11 +1749,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1702,17 +1763,20 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF121212"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1859,12 +1923,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1882,6 +1940,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2161,9 +2225,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E156" sqref="E156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.15"/>
@@ -2416,7 +2480,7 @@
     <row r="8" spans="1:27" ht="41.15">
       <c r="A8" s="3"/>
       <c r="B8" s="12" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2449,7 +2513,7 @@
     <row r="9" spans="1:27">
       <c r="A9" s="3"/>
       <c r="B9" s="12" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -2482,7 +2546,7 @@
     <row r="10" spans="1:27" ht="41.15">
       <c r="A10" s="3"/>
       <c r="B10" s="13" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -2553,7 +2617,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="14" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -2613,8 +2677,8 @@
     </row>
     <row r="14" spans="1:27" ht="41.15">
       <c r="A14" s="3"/>
-      <c r="B14" s="23" t="s">
-        <v>456</v>
+      <c r="B14" s="21" t="s">
+        <v>454</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -2679,8 +2743,8 @@
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="3"/>
-      <c r="B16" s="23" t="s">
-        <v>457</v>
+      <c r="B16" s="21" t="s">
+        <v>455</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2713,7 +2777,7 @@
     <row r="17" spans="1:27" ht="41.15">
       <c r="A17" s="3"/>
       <c r="B17" s="13" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>29</v>
@@ -2970,7 +3034,7 @@
     <row r="24" spans="1:27" ht="41.15">
       <c r="A24" s="3"/>
       <c r="B24" s="14" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>55</v>
@@ -3153,7 +3217,7 @@
       <c r="AA28" s="3"/>
     </row>
     <row r="29" spans="1:27" ht="301.75">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="23" t="s">
         <v>74</v>
       </c>
       <c r="B29" s="15" t="s">
@@ -3192,7 +3256,7 @@
       <c r="AA29" s="3"/>
     </row>
     <row r="30" spans="1:27">
-      <c r="A30" s="18"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="2" t="s">
         <v>79</v>
       </c>
@@ -3420,7 +3484,7 @@
         <v>101</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>76</v>
@@ -3527,7 +3591,7 @@
         <v>107</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>108</v>
@@ -3789,8 +3853,8 @@
     </row>
     <row r="46" spans="1:27">
       <c r="A46" s="3"/>
-      <c r="B46" s="19" t="s">
-        <v>461</v>
+      <c r="B46" s="17" t="s">
+        <v>459</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>132</v>
@@ -4186,7 +4250,7 @@
     </row>
     <row r="57" spans="1:27" ht="109.75">
       <c r="A57" s="3"/>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="18" t="s">
         <v>162</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -4670,8 +4734,8 @@
       <c r="D70" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E70" s="24" t="s">
-        <v>475</v>
+      <c r="E70" s="22" t="s">
+        <v>472</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
@@ -4709,8 +4773,8 @@
       <c r="D71" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E71" s="24" t="s">
-        <v>476</v>
+      <c r="E71" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
@@ -4845,7 +4909,7 @@
     <row r="75" spans="1:27">
       <c r="A75" s="3"/>
       <c r="B75" s="14" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -4878,14 +4942,14 @@
     <row r="76" spans="1:27" ht="27.45">
       <c r="A76" s="3"/>
       <c r="B76" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E76" s="24" t="s">
-        <v>477</v>
+      <c r="E76" s="22" t="s">
+        <v>474</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
@@ -5248,7 +5312,7 @@
         <v>257</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>258</v>
@@ -5321,7 +5385,7 @@
       <c r="A88" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B88" s="20" t="s">
+      <c r="B88" s="18" t="s">
         <v>265</v>
       </c>
       <c r="C88" s="2" t="s">
@@ -5515,7 +5579,9 @@
       <c r="D93" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E93" s="3"/>
+      <c r="E93" s="3" t="s">
+        <v>478</v>
+      </c>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
@@ -5692,7 +5758,9 @@
       <c r="D98" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="E98" s="3"/>
+      <c r="E98" s="3" t="s">
+        <v>475</v>
+      </c>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
@@ -5753,14 +5821,16 @@
       <c r="Z99" s="3"/>
       <c r="AA99" s="3"/>
     </row>
-    <row r="100" spans="1:27">
+    <row r="100" spans="1:27" ht="27.45">
       <c r="A100" s="3"/>
       <c r="B100" s="2" t="s">
         <v>307</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
+      <c r="E100" s="3" t="s">
+        <v>476</v>
+      </c>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
@@ -5794,7 +5864,7 @@
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="2" t="s">
-        <v>310</v>
+        <v>477</v>
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
@@ -5821,18 +5891,20 @@
     </row>
     <row r="102" spans="1:27" ht="41.15">
       <c r="A102" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="C102" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="D102" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E102" s="3"/>
+      <c r="E102" s="3" t="s">
+        <v>479</v>
+      </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
@@ -5859,13 +5931,13 @@
     <row r="103" spans="1:27" ht="27.45">
       <c r="A103" s="3"/>
       <c r="B103" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="D103" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>317</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
@@ -5894,14 +5966,14 @@
     <row r="104" spans="1:27" ht="82.3">
       <c r="A104" s="2"/>
       <c r="B104" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>319</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -5929,13 +6001,13 @@
     <row r="105" spans="1:27">
       <c r="A105" s="3"/>
       <c r="B105" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="D105" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
@@ -5963,10 +6035,10 @@
     </row>
     <row r="106" spans="1:27" ht="27.45">
       <c r="A106" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>292</v>
@@ -6000,10 +6072,10 @@
       <c r="Z106" s="3"/>
       <c r="AA106" s="3"/>
     </row>
-    <row r="107" spans="1:27">
+    <row r="107" spans="1:27" ht="27.45">
       <c r="A107" s="3"/>
       <c r="B107" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>292</v>
@@ -6011,7 +6083,9 @@
       <c r="D107" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E107" s="3"/>
+      <c r="E107" s="3" t="s">
+        <v>480</v>
+      </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
@@ -6038,13 +6112,15 @@
     <row r="108" spans="1:27" ht="27.45">
       <c r="A108" s="3"/>
       <c r="B108" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>328</v>
-      </c>
       <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
+      <c r="E108" s="3" t="s">
+        <v>481</v>
+      </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
@@ -6070,16 +6146,16 @@
     </row>
     <row r="109" spans="1:27" ht="41.15">
       <c r="A109" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="C109" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="D109" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
@@ -6107,18 +6183,20 @@
     </row>
     <row r="110" spans="1:27" ht="41.15">
       <c r="A110" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="C110" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="D110" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="E110" s="3"/>
+      <c r="E110" s="3" t="s">
+        <v>482</v>
+      </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
@@ -6145,7 +6223,7 @@
     <row r="111" spans="1:27">
       <c r="A111" s="3"/>
       <c r="B111" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>292</v>
@@ -6178,11 +6256,13 @@
     <row r="112" spans="1:27">
       <c r="A112" s="3"/>
       <c r="B112" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
+      <c r="E112" s="3" t="s">
+        <v>483</v>
+      </c>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
@@ -6209,7 +6289,7 @@
     <row r="113" spans="1:27">
       <c r="A113" s="3"/>
       <c r="B113" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>292</v>
@@ -6242,10 +6322,10 @@
     <row r="114" spans="1:27" ht="27.45">
       <c r="A114" s="3"/>
       <c r="B114" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C114" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>341</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>299</v>
@@ -6277,13 +6357,13 @@
     <row r="115" spans="1:27" ht="27.45">
       <c r="A115" s="3"/>
       <c r="B115" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>343</v>
-      </c>
       <c r="D115" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
@@ -6312,12 +6392,12 @@
     <row r="116" spans="1:27" ht="16.3">
       <c r="A116" s="3"/>
       <c r="B116" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
@@ -6345,10 +6425,10 @@
     <row r="117" spans="1:27">
       <c r="A117" s="3"/>
       <c r="B117" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>347</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>167</v>
@@ -6380,15 +6460,17 @@
     <row r="118" spans="1:27">
       <c r="A118" s="3"/>
       <c r="B118" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="D118" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="D118" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="E118" s="3"/>
+      <c r="E118" s="3" t="s">
+        <v>484</v>
+      </c>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
@@ -6414,19 +6496,19 @@
     </row>
     <row r="119" spans="1:27" ht="27.45">
       <c r="A119" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B119" s="15" t="s">
         <v>351</v>
-      </c>
-      <c r="B119" s="15" t="s">
-        <v>352</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>292</v>
       </c>
       <c r="D119" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>354</v>
       </c>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
@@ -6454,14 +6536,14 @@
     <row r="120" spans="1:27" ht="27.45">
       <c r="A120" s="3"/>
       <c r="B120" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>356</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
@@ -6489,13 +6571,13 @@
     <row r="121" spans="1:27" ht="54.9">
       <c r="A121" s="3"/>
       <c r="B121" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="D121" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>360</v>
       </c>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
@@ -6524,16 +6606,16 @@
     <row r="122" spans="1:27" ht="39.450000000000003" customHeight="1">
       <c r="A122" s="2"/>
       <c r="B122" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="D122" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D122" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="E122" s="24" t="s">
-        <v>466</v>
+      <c r="E122" s="22" t="s">
+        <v>464</v>
       </c>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
@@ -6558,17 +6640,17 @@
       <c r="Z122" s="3"/>
       <c r="AA122" s="3"/>
     </row>
-    <row r="123" spans="1:27">
+    <row r="123" spans="1:27" ht="41.15">
       <c r="A123" s="3"/>
       <c r="B123" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="C123" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="2" t="s">
-        <v>366</v>
+        <v>485</v>
       </c>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
@@ -6596,16 +6678,16 @@
     <row r="124" spans="1:27" ht="27.45">
       <c r="A124" s="3"/>
       <c r="B124" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="E124" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="E124" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -6633,14 +6715,14 @@
     <row r="125" spans="1:27" ht="28.3" customHeight="1">
       <c r="A125" s="3"/>
       <c r="B125" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D125" s="3"/>
-      <c r="E125" s="24" t="s">
-        <v>467</v>
+      <c r="E125" s="22" t="s">
+        <v>465</v>
       </c>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
@@ -6668,16 +6750,16 @@
     <row r="126" spans="1:27" ht="41.15">
       <c r="A126" s="3"/>
       <c r="B126" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="E126" s="24" t="s">
-        <v>468</v>
+      <c r="E126" s="22" t="s">
+        <v>466</v>
       </c>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
@@ -6705,16 +6787,16 @@
     <row r="127" spans="1:27" ht="41.15">
       <c r="A127" s="3"/>
       <c r="B127" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="E127" s="24" t="s">
-        <v>469</v>
+        <v>359</v>
+      </c>
+      <c r="E127" s="22" t="s">
+        <v>467</v>
       </c>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
@@ -6741,17 +6823,17 @@
     </row>
     <row r="128" spans="1:27" ht="27.45">
       <c r="A128" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D128" s="3"/>
-      <c r="E128" s="24" t="s">
-        <v>470</v>
+      <c r="E128" s="22" t="s">
+        <v>468</v>
       </c>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
@@ -6778,19 +6860,19 @@
     </row>
     <row r="129" spans="1:27">
       <c r="A129" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="D129" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="E129" s="24" t="s">
-        <v>471</v>
+      <c r="E129" s="22" t="s">
+        <v>469</v>
       </c>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
@@ -6818,16 +6900,16 @@
     <row r="130" spans="1:27">
       <c r="A130" s="3"/>
       <c r="B130" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="E130" s="24" t="s">
-        <v>472</v>
+      <c r="E130" s="22" t="s">
+        <v>470</v>
       </c>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
@@ -6854,13 +6936,13 @@
     </row>
     <row r="131" spans="1:27" ht="27.45">
       <c r="A131" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>388</v>
       </c>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -6890,15 +6972,17 @@
     <row r="132" spans="1:27" ht="27.45">
       <c r="A132" s="3"/>
       <c r="B132" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="E132" s="3"/>
+      <c r="E132" s="3" t="s">
+        <v>486</v>
+      </c>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
@@ -6924,15 +7008,15 @@
     </row>
     <row r="133" spans="1:27" ht="112.3">
       <c r="A133" s="3"/>
-      <c r="B133" s="22" t="s">
-        <v>465</v>
+      <c r="B133" s="20" t="s">
+        <v>463</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D133" s="3"/>
       <c r="E133" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
@@ -6959,18 +7043,20 @@
     </row>
     <row r="134" spans="1:27" ht="27.45">
       <c r="A134" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>396</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E134" s="3"/>
+      <c r="E134" s="3" t="s">
+        <v>487</v>
+      </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
@@ -6994,16 +7080,18 @@
       <c r="Z134" s="3"/>
       <c r="AA134" s="3"/>
     </row>
-    <row r="135" spans="1:27">
+    <row r="135" spans="1:27" ht="27.45">
       <c r="A135" s="3"/>
       <c r="B135" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D135" s="2"/>
-      <c r="E135" s="3"/>
+      <c r="E135" s="3" t="s">
+        <v>488</v>
+      </c>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
@@ -7029,16 +7117,16 @@
     </row>
     <row r="136" spans="1:27">
       <c r="A136" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C136" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="D136" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>402</v>
       </c>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
@@ -7066,16 +7154,16 @@
     </row>
     <row r="137" spans="1:27" ht="41.15">
       <c r="A137" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C137" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="D137" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
@@ -7104,16 +7192,16 @@
     <row r="138" spans="1:27" ht="68.599999999999994">
       <c r="A138" s="3"/>
       <c r="B138" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="E138" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>410</v>
       </c>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
@@ -7141,13 +7229,15 @@
     <row r="139" spans="1:27">
       <c r="A139" s="3"/>
       <c r="B139" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>292</v>
       </c>
       <c r="D139" s="3"/>
-      <c r="E139" s="3"/>
+      <c r="E139" s="3" t="s">
+        <v>489</v>
+      </c>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
@@ -7173,16 +7263,16 @@
     </row>
     <row r="140" spans="1:27" ht="54.9">
       <c r="A140" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C140" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="D140" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>415</v>
       </c>
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
@@ -7211,10 +7301,10 @@
     <row r="141" spans="1:27">
       <c r="A141" s="3"/>
       <c r="B141" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -7244,10 +7334,10 @@
     <row r="142" spans="1:27" ht="27.45">
       <c r="A142" s="3"/>
       <c r="B142" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -7277,15 +7367,17 @@
     <row r="143" spans="1:27" ht="54.9">
       <c r="A143" s="3"/>
       <c r="B143" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="E143" s="3"/>
+      <c r="E143" s="3" t="s">
+        <v>490</v>
+      </c>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
@@ -7341,10 +7433,10 @@
     <row r="145" spans="1:27">
       <c r="A145" s="3"/>
       <c r="B145" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -7374,14 +7466,14 @@
     <row r="146" spans="1:27" ht="27.45">
       <c r="A146" s="3"/>
       <c r="B146" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D146" s="3"/>
       <c r="E146" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
@@ -7409,12 +7501,12 @@
     <row r="147" spans="1:27">
       <c r="A147" s="3"/>
       <c r="B147" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
@@ -7441,17 +7533,17 @@
     </row>
     <row r="148" spans="1:27" ht="28.3">
       <c r="A148" s="3"/>
-      <c r="B148" s="21" t="s">
+      <c r="B148" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>432</v>
-      </c>
       <c r="E148" s="14" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
@@ -7479,13 +7571,13 @@
     <row r="149" spans="1:27">
       <c r="A149" s="3"/>
       <c r="B149" s="15" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
@@ -7514,13 +7606,13 @@
     <row r="150" spans="1:27">
       <c r="A150" s="3"/>
       <c r="B150" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>437</v>
       </c>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
@@ -7549,13 +7641,13 @@
     <row r="151" spans="1:27">
       <c r="A151" s="3"/>
       <c r="B151" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
@@ -7584,13 +7676,13 @@
     <row r="152" spans="1:27">
       <c r="A152" s="3"/>
       <c r="B152" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
@@ -7619,16 +7711,16 @@
     <row r="153" spans="1:27">
       <c r="A153" s="3"/>
       <c r="B153" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="E153" s="24" t="s">
-        <v>474</v>
+        <v>430</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>491</v>
       </c>
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
@@ -7656,13 +7748,13 @@
     <row r="154" spans="1:27">
       <c r="A154" s="3"/>
       <c r="B154" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" s="3"/>
@@ -7691,13 +7783,13 @@
     <row r="155" spans="1:27">
       <c r="A155" s="3"/>
       <c r="B155" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>448</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>28</v>
@@ -7728,13 +7820,13 @@
     <row r="156" spans="1:27" ht="54.9">
       <c r="A156" s="3"/>
       <c r="B156" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>

--- a/大软件测试-题库(1).xlsx
+++ b/大软件测试-题库(1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leon\Desktop\软测\软测题库\TongjiSE_SoftwareTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C7E1F1-C505-45FC-9443-2C741E1C5D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F0A331-F7F0-4858-8D3A-DD8491C11D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="498">
   <si>
     <t>、</t>
   </si>
@@ -1730,6 +1730,30 @@
   </si>
   <si>
     <t>结构性，单元测试要白盒的</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>test bed是什么？</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是test harness，脚手架</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于risk的测试是什么？</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>在第六章PPT提到了，我印象是什么风险高（比如这个函数出错系统恢复很麻烦）就测什么</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统测试有哪些level？</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>没看到这部分内容……估计是一组模块，子系统，整个系统？</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -2226,8 +2250,8 @@
   <dimension ref="A1:AA214"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E156" sqref="E156"/>
+      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E160" sqref="E160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.15"/>
@@ -7854,10 +7878,14 @@
     </row>
     <row r="157" spans="1:27">
       <c r="A157" s="3"/>
-      <c r="B157" s="3"/>
+      <c r="B157" s="3" t="s">
+        <v>492</v>
+      </c>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
-      <c r="E157" s="3"/>
+      <c r="E157" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
@@ -7881,12 +7909,16 @@
       <c r="Z157" s="3"/>
       <c r="AA157" s="3"/>
     </row>
-    <row r="158" spans="1:27">
+    <row r="158" spans="1:27" ht="27.45">
       <c r="A158" s="3"/>
-      <c r="B158" s="3"/>
+      <c r="B158" s="3" t="s">
+        <v>494</v>
+      </c>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
-      <c r="E158" s="3"/>
+      <c r="E158" s="3" t="s">
+        <v>495</v>
+      </c>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
@@ -7910,12 +7942,16 @@
       <c r="Z158" s="3"/>
       <c r="AA158" s="3"/>
     </row>
-    <row r="159" spans="1:27">
+    <row r="159" spans="1:27" ht="27.45">
       <c r="A159" s="3"/>
-      <c r="B159" s="3"/>
+      <c r="B159" s="3" t="s">
+        <v>496</v>
+      </c>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
-      <c r="E159" s="3"/>
+      <c r="E159" s="3" t="s">
+        <v>497</v>
+      </c>
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
